--- a/documents/Family Book Tracker-db.xlsx
+++ b/documents/Family Book Tracker-db.xlsx
@@ -1,32 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indigowolf/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF2FE0-03AE-2F46-9EF4-6371FE533180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="user_info" sheetId="1" r:id="rId1"/>
+    <sheet name="user_books" sheetId="5" r:id="rId2"/>
+    <sheet name="book_info" sheetId="2" r:id="rId3"/>
+    <sheet name="prize_category" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>books</t>
-  </si>
-  <si>
-    <t>prize_category</t>
-  </si>
-  <si>
-    <t>prize</t>
-  </si>
-  <si>
-    <t>parent / child</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>title</t>
   </si>
@@ -34,51 +31,18 @@
     <t>toy</t>
   </si>
   <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>past books</t>
-  </si>
-  <si>
     <t>author</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>future books</t>
-  </si>
-  <si>
-    <t>fiction/nonfiction</t>
-  </si>
-  <si>
     <t>outing</t>
   </si>
   <si>
-    <t>current book</t>
-  </si>
-  <si>
     <t>genre</t>
   </si>
   <si>
-    <t>misc</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>coupons</t>
-  </si>
-  <si>
-    <t>prizes won</t>
-  </si>
-  <si>
-    <t>age level</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
@@ -97,39 +61,104 @@
     <t>pages</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>isbn</t>
   </si>
   <si>
-    <t>approval</t>
-  </si>
-  <si>
-    <t>times read</t>
-  </si>
-  <si>
-    <t>book cover img</t>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>user_defined</t>
+  </si>
+  <si>
+    <t>family_id</t>
+  </si>
+  <si>
+    <t>book_id</t>
+  </si>
+  <si>
+    <t>age_level</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>cover_image</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>prize_points</t>
+  </si>
+  <si>
+    <t>times_read</t>
+  </si>
+  <si>
+    <t>past_book</t>
+  </si>
+  <si>
+    <t>current_book</t>
+  </si>
+  <si>
+    <t>future_book</t>
+  </si>
+  <si>
+    <t>approval_needed</t>
+  </si>
+  <si>
+    <t>prizes_won</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family_id </t>
+  </si>
+  <si>
+    <t>time_read</t>
+  </si>
+  <si>
+    <t>board game</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>sleepover</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -140,40 +169,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -363,42 +397,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="5.5"/>
-    <col customWidth="1" min="3" max="3" width="15.0"/>
-    <col customWidth="1" min="4" max="4" width="6.13"/>
-    <col customWidth="1" min="6" max="6" width="5.88"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2"/>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -417,119 +448,323 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F74ECD-CF80-7649-A502-F4752FA5A26B}">
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3376AF25-600A-CE4C-9D80-B56553B0D0DF}">
+  <dimension ref="A2:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1C917B-7414-AF41-AE80-109FD36D792A}">
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>